--- a/cocktails.xlsx
+++ b/cocktails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/cktlgg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728EFD0F-51C6-2243-93D2-58CA5BAEFC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D47286-EE10-5C45-AD9E-5A4888BCC4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="2780" windowWidth="28040" windowHeight="17180" xr2:uid="{915110E1-5B18-C840-8C91-675CF2419F80}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="119">
   <si>
     <t>이름</t>
   </si>
@@ -384,7 +384,18 @@
 커피 리큐르 20ml</t>
   </si>
   <si>
-    <t>잔에 얼음을 채우고 주재료들 모두 부어준다. 이후 잘 저어주면 완성. 가니쉬는 따로 없다.</t>
+    <t>영어이름</t>
+  </si>
+  <si>
+    <t>Black Russian</t>
+  </si>
+  <si>
+    <t>photo/blackrus.png</t>
+  </si>
+  <si>
+    <t>잔에 얼음을 채우고 주재료들 모두 부어준다. 
+이후 잘 저어주면 완성. 
+가니쉬는 따로 없다.</t>
   </si>
 </sst>
 </file>
@@ -774,650 +785,703 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D8D00F-1839-7841-BDB9-96B8C659586F}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" customWidth="1"/>
-    <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="4" max="5" width="109.6640625" customWidth="1"/>
-    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="1" max="2" width="35.83203125" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1"/>
+    <col min="5" max="5" width="60.83203125" customWidth="1"/>
+    <col min="6" max="6" width="109.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cocktails.xlsx
+++ b/cocktails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/cktlgg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D47286-EE10-5C45-AD9E-5A4888BCC4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9A84C2-B701-4C42-91DB-E847D5DFC131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="2780" windowWidth="28040" windowHeight="17180" xr2:uid="{915110E1-5B18-C840-8C91-675CF2419F80}"/>
+    <workbookView xWindow="3960" yWindow="2780" windowWidth="28040" windowHeight="17180" xr2:uid="{915110E1-5B18-C840-8C91-675CF2419F80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="121">
   <si>
     <t>이름</t>
   </si>
@@ -388,14 +388,20 @@
   </si>
   <si>
     <t>Black Russian</t>
-  </si>
-  <si>
-    <t>photo/blackrus.png</t>
   </si>
   <si>
     <t>잔에 얼음을 채우고 주재료들 모두 부어준다. 
 이후 잘 저어주면 완성. 
 가니쉬는 따로 없다.</t>
+  </si>
+  <si>
+    <t>/photo/blackrus.png</t>
+  </si>
+  <si>
+    <t>유튜브링크</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sirCfEcczm4</t>
   </si>
 </sst>
 </file>
@@ -785,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D8D00F-1839-7841-BDB9-96B8C659586F}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -800,7 +806,7 @@
     <col min="7" max="7" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,8 +828,11 @@
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -839,7 +848,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -855,7 +864,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -871,7 +880,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -887,7 +896,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -903,7 +912,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -919,7 +928,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -927,7 +936,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,7 +952,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -959,7 +968,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,13 +985,16 @@
         <v>114</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -997,7 +1009,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1011,7 +1023,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1027,7 +1039,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -1043,7 +1055,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
